--- a/webb app/excelFromComplete.xlsx
+++ b/webb app/excelFromComplete.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,9 +428,217 @@
         <v>ActualDuration</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="str">
+        <v>therd</v>
+      </c>
+      <c r="C2" t="str">
+        <v>skool</v>
+      </c>
+      <c r="D2" t="str">
+        <v>ksudkfgb</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2022-11-01 21:36:41</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2022-11-09 21:36:41</v>
+      </c>
+      <c r="G2">
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="str">
+        <v>skool</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Skool</v>
+      </c>
+      <c r="D3" t="str">
+        <v>lsfbrgl</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2022-10-21 20:37:00</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2022-10-23 20:37:00</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="str">
+        <v>srfdhb</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Skool</v>
+      </c>
+      <c r="D4" t="str">
+        <v>seg</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2022-10-20 21:38:00</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2022-11-20 21:38:00</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>id</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Title</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Category</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Description</v>
+      </c>
+      <c r="E8" t="str">
+        <v>WTstart</v>
+      </c>
+      <c r="F8" t="str">
+        <v>WTend</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Deadline</v>
+      </c>
+      <c r="H8" t="str">
+        <v>EstimatedDuration</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>first</v>
+      </c>
+      <c r="C9" t="str">
+        <v>skool</v>
+      </c>
+      <c r="D9" t="str">
+        <v>ksudkfgb</v>
+      </c>
+      <c r="E9" t="str">
+        <v>10-10</v>
+      </c>
+      <c r="F9" t="str">
+        <v>10-21</v>
+      </c>
+      <c r="G9" t="str">
+        <v>October-21</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="str">
+        <v>dfhndxrfdg</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Skool</v>
+      </c>
+      <c r="D10" t="str">
+        <v>srbhthdfcfth</v>
+      </c>
+      <c r="E10" t="str">
+        <v>11-09</v>
+      </c>
+      <c r="F10" t="str">
+        <v>11-15</v>
+      </c>
+      <c r="G10" t="str">
+        <v>November-15</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="str">
+        <v>sömerg</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Skool</v>
+      </c>
+      <c r="D11" t="str">
+        <v>aeg</v>
+      </c>
+      <c r="E11" t="str">
+        <v>11-15</v>
+      </c>
+      <c r="F11" t="str">
+        <v>11-24</v>
+      </c>
+      <c r="G11" t="str">
+        <v>November-24</v>
+      </c>
+      <c r="H11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="str">
+        <v>za</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Work</v>
+      </c>
+      <c r="D12" t="str">
+        <v>zza</v>
+      </c>
+      <c r="E12" t="str">
+        <v>10-21</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10-22</v>
+      </c>
+      <c r="G12" t="str">
+        <v>November-04</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H12"/>
   </ignoredErrors>
 </worksheet>
 </file>